--- a/4ApparatusModel.xlsx
+++ b/4ApparatusModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BF658C-8E51-4D41-82A7-4AF52AF5F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E3511-6A90-4511-9063-4C3B96631E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,7 +760,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-3.6699000000000002</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-1.0137</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-0.18640000000000001</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/4ApparatusModel.xlsx
+++ b/4ApparatusModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg934\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E3511-6A90-4511-9063-4C3B96631E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930171FD-5AEF-4EA1-96FD-ACD0951F93D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="12852" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -391,19 +391,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -412,7 +412,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -420,7 +420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,14 +428,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -443,7 +443,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -472,14 +472,14 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,65 +760,65 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="9.46484375" customWidth="1"/>
-    <col min="6" max="6" width="10.9296875" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -856,7 +856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1</v>
       </c>
@@ -894,12 +894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.1000000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="F12">
-        <v>-3.6699000000000002</v>
+        <v>-0.01</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>3</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>-1.0137</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>4</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.1000000000000001</v>
+        <v>1.63</v>
       </c>
       <c r="F14">
         <v>-0.18640000000000001</v>
@@ -1023,35 +1023,35 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.46484375" customWidth="1"/>
-    <col min="9" max="9" width="17.53125" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.9296875" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -1079,17 +1079,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1206,62 +1206,62 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1299,53 +1299,53 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1544,25 +1544,25 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1610,32 +1610,32 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1772,9 +1772,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>11</v>
       </c>

--- a/4ApparatusModel.xlsx
+++ b/4ApparatusModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg934\GitHub\Power-Communication-Isomorphism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930171FD-5AEF-4EA1-96FD-ACD0951F93D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F118C70-989A-4DCF-A8B8-DE58705EA9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="12852" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -391,19 +391,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -412,7 +412,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -420,7 +420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,14 +428,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -443,7 +443,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -472,14 +472,14 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,66 +759,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -856,7 +856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -894,12 +894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>-0.01</v>
       </c>
       <c r="F12">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F13">
-        <v>-1.0137</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.63</v>
+        <v>-2.5</v>
       </c>
       <c r="F14">
-        <v>-0.18640000000000001</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1019,39 +1019,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.46484375" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.46484375" customWidth="1"/>
+    <col min="9" max="9" width="17.53125" customWidth="1"/>
+    <col min="10" max="10" width="17.46484375" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.46484375" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -1079,17 +1079,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1141,11 +1141,11 @@
         <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>1000000</v>
+        <v>500</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1164,11 +1164,11 @@
         <v>5</v>
       </c>
       <c r="I10" s="1">
-        <v>1000000</v>
+        <v>500</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="1">
-        <v>1000000</v>
+        <v>500</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -1206,62 +1206,62 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1299,53 +1299,53 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1544,25 +1544,25 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1610,32 +1610,32 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1772,9 +1772,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>11</v>
       </c>
